--- a/cta策略/result/螺纹/MACD_1d/wfo_组合signal.xlsx
+++ b/cta策略/result/螺纹/MACD_1d/wfo_组合signal.xlsx
@@ -546,7 +546,7 @@
         <v>41689</v>
       </c>
       <c r="B20">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -554,7 +554,7 @@
         <v>41690</v>
       </c>
       <c r="B21">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -562,7 +562,7 @@
         <v>41691</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -570,7 +570,7 @@
         <v>41694</v>
       </c>
       <c r="B23">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -578,7 +578,7 @@
         <v>41695</v>
       </c>
       <c r="B24">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -586,7 +586,7 @@
         <v>41696</v>
       </c>
       <c r="B25">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -594,7 +594,7 @@
         <v>41697</v>
       </c>
       <c r="B26">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -602,7 +602,7 @@
         <v>41698</v>
       </c>
       <c r="B27">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -610,7 +610,7 @@
         <v>41701</v>
       </c>
       <c r="B28">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -618,7 +618,7 @@
         <v>41702</v>
       </c>
       <c r="B29">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -626,7 +626,7 @@
         <v>41703</v>
       </c>
       <c r="B30">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -634,7 +634,7 @@
         <v>41704</v>
       </c>
       <c r="B31">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -642,7 +642,7 @@
         <v>41705</v>
       </c>
       <c r="B32">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -650,7 +650,7 @@
         <v>41708</v>
       </c>
       <c r="B33">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -658,7 +658,7 @@
         <v>41709</v>
       </c>
       <c r="B34">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -666,7 +666,7 @@
         <v>41710</v>
       </c>
       <c r="B35">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -682,7 +682,7 @@
         <v>41712</v>
       </c>
       <c r="B37">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -690,7 +690,7 @@
         <v>41715</v>
       </c>
       <c r="B38">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -698,7 +698,7 @@
         <v>41716</v>
       </c>
       <c r="B39">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -706,7 +706,7 @@
         <v>41717</v>
       </c>
       <c r="B40">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -714,7 +714,7 @@
         <v>41718</v>
       </c>
       <c r="B41">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -722,7 +722,7 @@
         <v>41719</v>
       </c>
       <c r="B42">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -730,7 +730,7 @@
         <v>41722</v>
       </c>
       <c r="B43">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -738,7 +738,7 @@
         <v>41723</v>
       </c>
       <c r="B44">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -746,7 +746,7 @@
         <v>41724</v>
       </c>
       <c r="B45">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -754,7 +754,7 @@
         <v>41725</v>
       </c>
       <c r="B46">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -762,7 +762,7 @@
         <v>41726</v>
       </c>
       <c r="B47">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -770,7 +770,7 @@
         <v>41729</v>
       </c>
       <c r="B48">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -778,7 +778,7 @@
         <v>41730</v>
       </c>
       <c r="B49">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -794,7 +794,7 @@
         <v>41732</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -802,7 +802,7 @@
         <v>41733</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -810,7 +810,7 @@
         <v>41737</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -818,7 +818,7 @@
         <v>41738</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -826,7 +826,7 @@
         <v>41739</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -834,7 +834,7 @@
         <v>41740</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -842,7 +842,7 @@
         <v>41743</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -850,7 +850,7 @@
         <v>41744</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -858,7 +858,7 @@
         <v>41745</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -866,7 +866,7 @@
         <v>41746</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -874,7 +874,7 @@
         <v>41747</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -882,7 +882,7 @@
         <v>41750</v>
       </c>
       <c r="B62">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -890,7 +890,7 @@
         <v>41751</v>
       </c>
       <c r="B63">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -898,7 +898,7 @@
         <v>41752</v>
       </c>
       <c r="B64">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -906,7 +906,7 @@
         <v>41753</v>
       </c>
       <c r="B65">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -914,7 +914,7 @@
         <v>41754</v>
       </c>
       <c r="B66">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -922,7 +922,7 @@
         <v>41757</v>
       </c>
       <c r="B67">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -930,7 +930,7 @@
         <v>41758</v>
       </c>
       <c r="B68">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -938,7 +938,7 @@
         <v>41759</v>
       </c>
       <c r="B69">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -946,7 +946,7 @@
         <v>41764</v>
       </c>
       <c r="B70">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -954,7 +954,7 @@
         <v>41765</v>
       </c>
       <c r="B71">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -962,7 +962,7 @@
         <v>41766</v>
       </c>
       <c r="B72">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -970,7 +970,7 @@
         <v>41767</v>
       </c>
       <c r="B73">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -978,7 +978,7 @@
         <v>41768</v>
       </c>
       <c r="B74">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -986,7 +986,7 @@
         <v>41771</v>
       </c>
       <c r="B75">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -994,7 +994,7 @@
         <v>41772</v>
       </c>
       <c r="B76">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1002,7 +1002,7 @@
         <v>41773</v>
       </c>
       <c r="B77">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1010,7 +1010,7 @@
         <v>41774</v>
       </c>
       <c r="B78">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1018,7 +1018,7 @@
         <v>41775</v>
       </c>
       <c r="B79">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1026,7 +1026,7 @@
         <v>41778</v>
       </c>
       <c r="B80">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1034,7 +1034,7 @@
         <v>41779</v>
       </c>
       <c r="B81">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1042,7 +1042,7 @@
         <v>41780</v>
       </c>
       <c r="B82">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1050,7 +1050,7 @@
         <v>41781</v>
       </c>
       <c r="B83">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1058,7 +1058,7 @@
         <v>41782</v>
       </c>
       <c r="B84">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1066,7 +1066,7 @@
         <v>41785</v>
       </c>
       <c r="B85">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1074,7 +1074,7 @@
         <v>41786</v>
       </c>
       <c r="B86">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1082,7 +1082,7 @@
         <v>41787</v>
       </c>
       <c r="B87">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1090,7 +1090,7 @@
         <v>41788</v>
       </c>
       <c r="B88">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1098,7 +1098,7 @@
         <v>41789</v>
       </c>
       <c r="B89">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1106,7 +1106,7 @@
         <v>41793</v>
       </c>
       <c r="B90">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1114,7 +1114,7 @@
         <v>41794</v>
       </c>
       <c r="B91">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1122,7 +1122,7 @@
         <v>41795</v>
       </c>
       <c r="B92">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1130,7 +1130,7 @@
         <v>41796</v>
       </c>
       <c r="B93">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1138,7 +1138,7 @@
         <v>41799</v>
       </c>
       <c r="B94">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1146,7 +1146,7 @@
         <v>41800</v>
       </c>
       <c r="B95">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1154,7 +1154,7 @@
         <v>41801</v>
       </c>
       <c r="B96">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1162,7 +1162,7 @@
         <v>41802</v>
       </c>
       <c r="B97">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1170,7 +1170,7 @@
         <v>41803</v>
       </c>
       <c r="B98">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1178,7 +1178,7 @@
         <v>41806</v>
       </c>
       <c r="B99">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1186,7 +1186,7 @@
         <v>41807</v>
       </c>
       <c r="B100">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1194,7 +1194,7 @@
         <v>41808</v>
       </c>
       <c r="B101">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1202,7 +1202,7 @@
         <v>41809</v>
       </c>
       <c r="B102">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1210,7 +1210,7 @@
         <v>41810</v>
       </c>
       <c r="B103">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1218,7 +1218,7 @@
         <v>41813</v>
       </c>
       <c r="B104">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1226,7 +1226,7 @@
         <v>41814</v>
       </c>
       <c r="B105">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1234,7 +1234,7 @@
         <v>41815</v>
       </c>
       <c r="B106">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1250,7 +1250,7 @@
         <v>41817</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1258,7 +1258,7 @@
         <v>41820</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1266,7 +1266,7 @@
         <v>41821</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1274,7 +1274,7 @@
         <v>41822</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1282,7 +1282,7 @@
         <v>41823</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1290,7 +1290,7 @@
         <v>41824</v>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1298,7 +1298,7 @@
         <v>41827</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1306,7 +1306,7 @@
         <v>41828</v>
       </c>
       <c r="B115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1314,7 +1314,7 @@
         <v>41829</v>
       </c>
       <c r="B116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1322,7 +1322,7 @@
         <v>41830</v>
       </c>
       <c r="B117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1330,7 +1330,7 @@
         <v>41831</v>
       </c>
       <c r="B118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1338,7 +1338,7 @@
         <v>41834</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1346,7 +1346,7 @@
         <v>41835</v>
       </c>
       <c r="B120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1354,7 +1354,7 @@
         <v>41836</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1362,7 +1362,7 @@
         <v>41837</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1370,7 +1370,7 @@
         <v>41838</v>
       </c>
       <c r="B123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1386,7 +1386,7 @@
         <v>41842</v>
       </c>
       <c r="B125">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1394,7 +1394,7 @@
         <v>41843</v>
       </c>
       <c r="B126">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1402,7 +1402,7 @@
         <v>41844</v>
       </c>
       <c r="B127">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1410,7 +1410,7 @@
         <v>41845</v>
       </c>
       <c r="B128">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1418,7 +1418,7 @@
         <v>41848</v>
       </c>
       <c r="B129">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1426,7 +1426,7 @@
         <v>41849</v>
       </c>
       <c r="B130">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1434,7 +1434,7 @@
         <v>41850</v>
       </c>
       <c r="B131">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1442,7 +1442,7 @@
         <v>41851</v>
       </c>
       <c r="B132">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1450,7 +1450,7 @@
         <v>41852</v>
       </c>
       <c r="B133">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1458,7 +1458,7 @@
         <v>41855</v>
       </c>
       <c r="B134">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1474,7 +1474,7 @@
         <v>41857</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1482,7 +1482,7 @@
         <v>41858</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1490,7 +1490,7 @@
         <v>41859</v>
       </c>
       <c r="B138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1498,7 +1498,7 @@
         <v>41862</v>
       </c>
       <c r="B139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1506,7 +1506,7 @@
         <v>41863</v>
       </c>
       <c r="B140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1514,7 +1514,7 @@
         <v>41864</v>
       </c>
       <c r="B141">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1522,7 +1522,7 @@
         <v>41865</v>
       </c>
       <c r="B142">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1530,7 +1530,7 @@
         <v>41866</v>
       </c>
       <c r="B143">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1538,7 +1538,7 @@
         <v>41869</v>
       </c>
       <c r="B144">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1546,7 +1546,7 @@
         <v>41870</v>
       </c>
       <c r="B145">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1554,7 +1554,7 @@
         <v>41871</v>
       </c>
       <c r="B146">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1562,7 +1562,7 @@
         <v>41872</v>
       </c>
       <c r="B147">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1570,7 +1570,7 @@
         <v>41873</v>
       </c>
       <c r="B148">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1578,7 +1578,7 @@
         <v>41876</v>
       </c>
       <c r="B149">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1586,7 +1586,7 @@
         <v>41877</v>
       </c>
       <c r="B150">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1594,7 +1594,7 @@
         <v>41878</v>
       </c>
       <c r="B151">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1602,7 +1602,7 @@
         <v>41879</v>
       </c>
       <c r="B152">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1610,7 +1610,7 @@
         <v>41880</v>
       </c>
       <c r="B153">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1618,7 +1618,7 @@
         <v>41883</v>
       </c>
       <c r="B154">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1626,7 +1626,7 @@
         <v>41884</v>
       </c>
       <c r="B155">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1634,7 +1634,7 @@
         <v>41885</v>
       </c>
       <c r="B156">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1642,7 +1642,7 @@
         <v>41886</v>
       </c>
       <c r="B157">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1650,7 +1650,7 @@
         <v>41887</v>
       </c>
       <c r="B158">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1658,7 +1658,7 @@
         <v>41891</v>
       </c>
       <c r="B159">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1666,7 +1666,7 @@
         <v>41892</v>
       </c>
       <c r="B160">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1674,7 +1674,7 @@
         <v>41893</v>
       </c>
       <c r="B161">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1682,7 +1682,7 @@
         <v>41894</v>
       </c>
       <c r="B162">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1690,7 +1690,7 @@
         <v>41897</v>
       </c>
       <c r="B163">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1698,7 +1698,7 @@
         <v>41898</v>
       </c>
       <c r="B164">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1706,7 +1706,7 @@
         <v>41899</v>
       </c>
       <c r="B165">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1714,7 +1714,7 @@
         <v>41900</v>
       </c>
       <c r="B166">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1722,7 +1722,7 @@
         <v>41901</v>
       </c>
       <c r="B167">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1730,7 +1730,7 @@
         <v>41904</v>
       </c>
       <c r="B168">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1738,7 +1738,7 @@
         <v>41905</v>
       </c>
       <c r="B169">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1746,7 +1746,7 @@
         <v>41906</v>
       </c>
       <c r="B170">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1754,7 +1754,7 @@
         <v>41907</v>
       </c>
       <c r="B171">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1762,7 +1762,7 @@
         <v>41908</v>
       </c>
       <c r="B172">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1770,7 +1770,7 @@
         <v>41911</v>
       </c>
       <c r="B173">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1778,7 +1778,7 @@
         <v>41912</v>
       </c>
       <c r="B174">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1786,7 +1786,7 @@
         <v>41920</v>
       </c>
       <c r="B175">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1794,7 +1794,7 @@
         <v>41921</v>
       </c>
       <c r="B176">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1802,7 +1802,7 @@
         <v>41922</v>
       </c>
       <c r="B177">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1810,7 +1810,7 @@
         <v>41925</v>
       </c>
       <c r="B178">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1818,7 +1818,7 @@
         <v>41926</v>
       </c>
       <c r="B179">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1826,7 +1826,7 @@
         <v>41927</v>
       </c>
       <c r="B180">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1834,7 +1834,7 @@
         <v>41928</v>
       </c>
       <c r="B181">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1842,7 +1842,7 @@
         <v>41929</v>
       </c>
       <c r="B182">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1850,7 +1850,7 @@
         <v>41932</v>
       </c>
       <c r="B183">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1858,7 +1858,7 @@
         <v>41933</v>
       </c>
       <c r="B184">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1874,7 +1874,7 @@
         <v>41935</v>
       </c>
       <c r="B186">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1882,7 +1882,7 @@
         <v>41936</v>
       </c>
       <c r="B187">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1890,7 +1890,7 @@
         <v>41939</v>
       </c>
       <c r="B188">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1898,7 +1898,7 @@
         <v>41940</v>
       </c>
       <c r="B189">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1906,7 +1906,7 @@
         <v>41941</v>
       </c>
       <c r="B190">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1914,7 +1914,7 @@
         <v>41942</v>
       </c>
       <c r="B191">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1922,7 +1922,7 @@
         <v>41943</v>
       </c>
       <c r="B192">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1930,7 +1930,7 @@
         <v>41946</v>
       </c>
       <c r="B193">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1938,7 +1938,7 @@
         <v>41947</v>
       </c>
       <c r="B194">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1946,7 +1946,7 @@
         <v>41948</v>
       </c>
       <c r="B195">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1954,7 +1954,7 @@
         <v>41949</v>
       </c>
       <c r="B196">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1962,7 +1962,7 @@
         <v>41950</v>
       </c>
       <c r="B197">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1970,7 +1970,7 @@
         <v>41953</v>
       </c>
       <c r="B198">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1978,7 +1978,7 @@
         <v>41954</v>
       </c>
       <c r="B199">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1986,7 +1986,7 @@
         <v>41955</v>
       </c>
       <c r="B200">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1994,7 +1994,7 @@
         <v>41956</v>
       </c>
       <c r="B201">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2002,7 +2002,7 @@
         <v>41957</v>
       </c>
       <c r="B202">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2010,7 +2010,7 @@
         <v>41960</v>
       </c>
       <c r="B203">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2018,7 +2018,7 @@
         <v>41961</v>
       </c>
       <c r="B204">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2026,7 +2026,7 @@
         <v>41962</v>
       </c>
       <c r="B205">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2034,7 +2034,7 @@
         <v>41963</v>
       </c>
       <c r="B206">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2042,7 +2042,7 @@
         <v>41964</v>
       </c>
       <c r="B207">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2050,7 +2050,7 @@
         <v>41967</v>
       </c>
       <c r="B208">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2058,7 +2058,7 @@
         <v>41968</v>
       </c>
       <c r="B209">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2066,7 +2066,7 @@
         <v>41969</v>
       </c>
       <c r="B210">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2074,7 +2074,7 @@
         <v>41970</v>
       </c>
       <c r="B211">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2082,7 +2082,7 @@
         <v>41971</v>
       </c>
       <c r="B212">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2090,7 +2090,7 @@
         <v>41974</v>
       </c>
       <c r="B213">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2154,7 +2154,7 @@
         <v>41984</v>
       </c>
       <c r="B221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2162,7 +2162,7 @@
         <v>41985</v>
       </c>
       <c r="B222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2170,7 +2170,7 @@
         <v>41988</v>
       </c>
       <c r="B223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2178,7 +2178,7 @@
         <v>41989</v>
       </c>
       <c r="B224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2186,7 +2186,7 @@
         <v>41990</v>
       </c>
       <c r="B225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2194,7 +2194,7 @@
         <v>41991</v>
       </c>
       <c r="B226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2202,7 +2202,7 @@
         <v>41992</v>
       </c>
       <c r="B227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2210,7 +2210,7 @@
         <v>41995</v>
       </c>
       <c r="B228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2218,7 +2218,7 @@
         <v>41996</v>
       </c>
       <c r="B229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2226,7 +2226,7 @@
         <v>41997</v>
       </c>
       <c r="B230">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2234,7 +2234,7 @@
         <v>41998</v>
       </c>
       <c r="B231">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2242,7 +2242,7 @@
         <v>41999</v>
       </c>
       <c r="B232">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>42002</v>
       </c>
       <c r="B233">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2258,7 +2258,7 @@
         <v>42003</v>
       </c>
       <c r="B234">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2274,7 +2274,7 @@
         <v>42009</v>
       </c>
       <c r="B236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2282,7 +2282,7 @@
         <v>42010</v>
       </c>
       <c r="B237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2290,7 +2290,7 @@
         <v>42011</v>
       </c>
       <c r="B238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2298,7 +2298,7 @@
         <v>42012</v>
       </c>
       <c r="B239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2306,7 +2306,7 @@
         <v>42013</v>
       </c>
       <c r="B240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2314,7 +2314,7 @@
         <v>42016</v>
       </c>
       <c r="B241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2322,7 +2322,7 @@
         <v>42017</v>
       </c>
       <c r="B242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2338,7 +2338,7 @@
         <v>42019</v>
       </c>
       <c r="B244">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -2346,7 +2346,7 @@
         <v>42020</v>
       </c>
       <c r="B245">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2354,7 +2354,7 @@
         <v>42023</v>
       </c>
       <c r="B246">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2362,7 +2362,7 @@
         <v>42024</v>
       </c>
       <c r="B247">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2370,7 +2370,7 @@
         <v>42025</v>
       </c>
       <c r="B248">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -2378,7 +2378,7 @@
         <v>42026</v>
       </c>
       <c r="B249">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2386,7 +2386,7 @@
         <v>42027</v>
       </c>
       <c r="B250">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2394,7 +2394,7 @@
         <v>42030</v>
       </c>
       <c r="B251">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2402,7 +2402,7 @@
         <v>42031</v>
       </c>
       <c r="B252">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2410,7 +2410,7 @@
         <v>42032</v>
       </c>
       <c r="B253">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2418,7 +2418,7 @@
         <v>42033</v>
       </c>
       <c r="B254">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2426,7 +2426,7 @@
         <v>42034</v>
       </c>
       <c r="B255">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2434,7 +2434,7 @@
         <v>42037</v>
       </c>
       <c r="B256">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2442,7 +2442,7 @@
         <v>42038</v>
       </c>
       <c r="B257">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2450,7 +2450,7 @@
         <v>42039</v>
       </c>
       <c r="B258">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2458,7 +2458,7 @@
         <v>42040</v>
       </c>
       <c r="B259">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>42041</v>
       </c>
       <c r="B260">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2474,7 +2474,7 @@
         <v>42044</v>
       </c>
       <c r="B261">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2482,7 +2482,7 @@
         <v>42045</v>
       </c>
       <c r="B262">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2490,7 +2490,7 @@
         <v>42046</v>
       </c>
       <c r="B263">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2498,7 +2498,7 @@
         <v>42047</v>
       </c>
       <c r="B264">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2506,7 +2506,7 @@
         <v>42048</v>
       </c>
       <c r="B265">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2554,7 +2554,7 @@
         <v>42065</v>
       </c>
       <c r="B271">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -3282,7 +3282,7 @@
         <v>42195</v>
       </c>
       <c r="B362">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -3290,7 +3290,7 @@
         <v>42198</v>
       </c>
       <c r="B363">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -3298,7 +3298,7 @@
         <v>42199</v>
       </c>
       <c r="B364">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -3306,7 +3306,7 @@
         <v>42200</v>
       </c>
       <c r="B365">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -3314,7 +3314,7 @@
         <v>42201</v>
       </c>
       <c r="B366">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -3322,7 +3322,7 @@
         <v>42202</v>
       </c>
       <c r="B367">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -3330,7 +3330,7 @@
         <v>42205</v>
       </c>
       <c r="B368">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3338,7 +3338,7 @@
         <v>42206</v>
       </c>
       <c r="B369">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -3346,7 +3346,7 @@
         <v>42207</v>
       </c>
       <c r="B370">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3354,7 +3354,7 @@
         <v>42208</v>
       </c>
       <c r="B371">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -3362,7 +3362,7 @@
         <v>42209</v>
       </c>
       <c r="B372">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3370,7 +3370,7 @@
         <v>42212</v>
       </c>
       <c r="B373">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3378,7 +3378,7 @@
         <v>42213</v>
       </c>
       <c r="B374">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3386,7 +3386,7 @@
         <v>42214</v>
       </c>
       <c r="B375">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3394,7 +3394,7 @@
         <v>42215</v>
       </c>
       <c r="B376">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -3402,7 +3402,7 @@
         <v>42216</v>
       </c>
       <c r="B377">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -3410,7 +3410,7 @@
         <v>42219</v>
       </c>
       <c r="B378">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -3418,7 +3418,7 @@
         <v>42220</v>
       </c>
       <c r="B379">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3426,7 +3426,7 @@
         <v>42221</v>
       </c>
       <c r="B380">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -3434,7 +3434,7 @@
         <v>42222</v>
       </c>
       <c r="B381">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -3442,7 +3442,7 @@
         <v>42223</v>
       </c>
       <c r="B382">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -3450,7 +3450,7 @@
         <v>42226</v>
       </c>
       <c r="B383">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -3458,7 +3458,7 @@
         <v>42227</v>
       </c>
       <c r="B384">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -3466,7 +3466,7 @@
         <v>42228</v>
       </c>
       <c r="B385">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -3474,7 +3474,7 @@
         <v>42229</v>
       </c>
       <c r="B386">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3482,7 +3482,7 @@
         <v>42230</v>
       </c>
       <c r="B387">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -3490,7 +3490,7 @@
         <v>42233</v>
       </c>
       <c r="B388">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -3498,7 +3498,7 @@
         <v>42234</v>
       </c>
       <c r="B389">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -3506,7 +3506,7 @@
         <v>42235</v>
       </c>
       <c r="B390">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -3514,7 +3514,7 @@
         <v>42236</v>
       </c>
       <c r="B391">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3522,7 +3522,7 @@
         <v>42237</v>
       </c>
       <c r="B392">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3530,7 +3530,7 @@
         <v>42240</v>
       </c>
       <c r="B393">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -3538,7 +3538,7 @@
         <v>42241</v>
       </c>
       <c r="B394">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -3546,7 +3546,7 @@
         <v>42242</v>
       </c>
       <c r="B395">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -3554,7 +3554,7 @@
         <v>42243</v>
       </c>
       <c r="B396">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -3562,7 +3562,7 @@
         <v>42244</v>
       </c>
       <c r="B397">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -3570,7 +3570,7 @@
         <v>42247</v>
       </c>
       <c r="B398">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -3578,7 +3578,7 @@
         <v>42248</v>
       </c>
       <c r="B399">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -3586,7 +3586,7 @@
         <v>42249</v>
       </c>
       <c r="B400">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3594,7 +3594,7 @@
         <v>42254</v>
       </c>
       <c r="B401">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -3602,7 +3602,7 @@
         <v>42255</v>
       </c>
       <c r="B402">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -3610,7 +3610,7 @@
         <v>42256</v>
       </c>
       <c r="B403">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3618,7 +3618,7 @@
         <v>42257</v>
       </c>
       <c r="B404">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -3626,7 +3626,7 @@
         <v>42258</v>
       </c>
       <c r="B405">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -3634,7 +3634,7 @@
         <v>42261</v>
       </c>
       <c r="B406">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -3642,7 +3642,7 @@
         <v>42262</v>
       </c>
       <c r="B407">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -3650,7 +3650,7 @@
         <v>42263</v>
       </c>
       <c r="B408">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -3658,7 +3658,7 @@
         <v>42264</v>
       </c>
       <c r="B409">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3666,7 +3666,7 @@
         <v>42265</v>
       </c>
       <c r="B410">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -3674,7 +3674,7 @@
         <v>42268</v>
       </c>
       <c r="B411">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3682,7 +3682,7 @@
         <v>42269</v>
       </c>
       <c r="B412">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -3690,7 +3690,7 @@
         <v>42270</v>
       </c>
       <c r="B413">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -3698,7 +3698,7 @@
         <v>42271</v>
       </c>
       <c r="B414">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -3706,7 +3706,7 @@
         <v>42272</v>
       </c>
       <c r="B415">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -3714,7 +3714,7 @@
         <v>42275</v>
       </c>
       <c r="B416">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -3722,7 +3722,7 @@
         <v>42276</v>
       </c>
       <c r="B417">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3730,7 +3730,7 @@
         <v>42277</v>
       </c>
       <c r="B418">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3738,7 +3738,7 @@
         <v>42285</v>
       </c>
       <c r="B419">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -3746,7 +3746,7 @@
         <v>42286</v>
       </c>
       <c r="B420">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -3754,7 +3754,7 @@
         <v>42289</v>
       </c>
       <c r="B421">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -3762,7 +3762,7 @@
         <v>42290</v>
       </c>
       <c r="B422">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -3770,7 +3770,7 @@
         <v>42291</v>
       </c>
       <c r="B423">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -3778,7 +3778,7 @@
         <v>42292</v>
       </c>
       <c r="B424">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -3786,7 +3786,7 @@
         <v>42293</v>
       </c>
       <c r="B425">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -3794,7 +3794,7 @@
         <v>42296</v>
       </c>
       <c r="B426">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -3802,7 +3802,7 @@
         <v>42297</v>
       </c>
       <c r="B427">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -3810,7 +3810,7 @@
         <v>42298</v>
       </c>
       <c r="B428">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -3818,7 +3818,7 @@
         <v>42299</v>
       </c>
       <c r="B429">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -3826,7 +3826,7 @@
         <v>42300</v>
       </c>
       <c r="B430">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -3834,7 +3834,7 @@
         <v>42303</v>
       </c>
       <c r="B431">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -3842,7 +3842,7 @@
         <v>42304</v>
       </c>
       <c r="B432">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -3850,7 +3850,7 @@
         <v>42305</v>
       </c>
       <c r="B433">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -3858,7 +3858,7 @@
         <v>42306</v>
       </c>
       <c r="B434">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -3866,7 +3866,7 @@
         <v>42307</v>
       </c>
       <c r="B435">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -3874,7 +3874,7 @@
         <v>42310</v>
       </c>
       <c r="B436">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -3882,7 +3882,7 @@
         <v>42311</v>
       </c>
       <c r="B437">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -3890,7 +3890,7 @@
         <v>42312</v>
       </c>
       <c r="B438">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -3898,7 +3898,7 @@
         <v>42313</v>
       </c>
       <c r="B439">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -3906,7 +3906,7 @@
         <v>42314</v>
       </c>
       <c r="B440">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -3914,7 +3914,7 @@
         <v>42317</v>
       </c>
       <c r="B441">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -3922,7 +3922,7 @@
         <v>42318</v>
       </c>
       <c r="B442">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -3930,7 +3930,7 @@
         <v>42319</v>
       </c>
       <c r="B443">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -3938,7 +3938,7 @@
         <v>42320</v>
       </c>
       <c r="B444">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -3946,7 +3946,7 @@
         <v>42321</v>
       </c>
       <c r="B445">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -3954,7 +3954,7 @@
         <v>42324</v>
       </c>
       <c r="B446">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -3962,7 +3962,7 @@
         <v>42325</v>
       </c>
       <c r="B447">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -3970,7 +3970,7 @@
         <v>42326</v>
       </c>
       <c r="B448">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -3978,7 +3978,7 @@
         <v>42327</v>
       </c>
       <c r="B449">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -4162,7 +4162,7 @@
         <v>42360</v>
       </c>
       <c r="B472">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -4170,7 +4170,7 @@
         <v>42361</v>
       </c>
       <c r="B473">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -4178,7 +4178,7 @@
         <v>42362</v>
       </c>
       <c r="B474">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -4186,7 +4186,7 @@
         <v>42363</v>
       </c>
       <c r="B475">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -4194,7 +4194,7 @@
         <v>42366</v>
       </c>
       <c r="B476">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -4202,7 +4202,7 @@
         <v>42367</v>
       </c>
       <c r="B477">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -4210,7 +4210,7 @@
         <v>42368</v>
       </c>
       <c r="B478">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -4218,7 +4218,7 @@
         <v>42369</v>
       </c>
       <c r="B479">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -4226,7 +4226,7 @@
         <v>42373</v>
       </c>
       <c r="B480">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -4234,7 +4234,7 @@
         <v>42374</v>
       </c>
       <c r="B481">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -4242,7 +4242,7 @@
         <v>42375</v>
       </c>
       <c r="B482">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -4250,7 +4250,7 @@
         <v>42376</v>
       </c>
       <c r="B483">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4258,7 +4258,7 @@
         <v>42377</v>
       </c>
       <c r="B484">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -4266,7 +4266,7 @@
         <v>42380</v>
       </c>
       <c r="B485">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -4274,7 +4274,7 @@
         <v>42381</v>
       </c>
       <c r="B486">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -4282,7 +4282,7 @@
         <v>42382</v>
       </c>
       <c r="B487">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -4290,7 +4290,7 @@
         <v>42383</v>
       </c>
       <c r="B488">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -4298,7 +4298,7 @@
         <v>42384</v>
       </c>
       <c r="B489">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -4306,7 +4306,7 @@
         <v>42387</v>
       </c>
       <c r="B490">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -4314,7 +4314,7 @@
         <v>42388</v>
       </c>
       <c r="B491">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -4698,7 +4698,7 @@
         <v>42461</v>
       </c>
       <c r="B539">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -4706,7 +4706,7 @@
         <v>42465</v>
       </c>
       <c r="B540">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -4890,7 +4890,7 @@
         <v>42499</v>
       </c>
       <c r="B563">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -4906,7 +4906,7 @@
         <v>42501</v>
       </c>
       <c r="B565">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -5066,7 +5066,7 @@
         <v>42529</v>
       </c>
       <c r="B585">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -5074,7 +5074,7 @@
         <v>42534</v>
       </c>
       <c r="B586">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -5082,7 +5082,7 @@
         <v>42535</v>
       </c>
       <c r="B587">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -5090,7 +5090,7 @@
         <v>42536</v>
       </c>
       <c r="B588">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -5098,7 +5098,7 @@
         <v>42537</v>
       </c>
       <c r="B589">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -5106,7 +5106,7 @@
         <v>42538</v>
       </c>
       <c r="B590">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -5114,7 +5114,7 @@
         <v>42541</v>
       </c>
       <c r="B591">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -5122,7 +5122,7 @@
         <v>42542</v>
       </c>
       <c r="B592">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -5130,7 +5130,7 @@
         <v>42543</v>
       </c>
       <c r="B593">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -5138,7 +5138,7 @@
         <v>42544</v>
       </c>
       <c r="B594">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -5146,7 +5146,7 @@
         <v>42545</v>
       </c>
       <c r="B595">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -5154,7 +5154,7 @@
         <v>42548</v>
       </c>
       <c r="B596">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -5162,7 +5162,7 @@
         <v>42549</v>
       </c>
       <c r="B597">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -5170,7 +5170,7 @@
         <v>42550</v>
       </c>
       <c r="B598">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -5178,7 +5178,7 @@
         <v>42551</v>
       </c>
       <c r="B599">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -5186,7 +5186,7 @@
         <v>42552</v>
       </c>
       <c r="B600">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -5194,7 +5194,7 @@
         <v>42555</v>
       </c>
       <c r="B601">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -5202,7 +5202,7 @@
         <v>42556</v>
       </c>
       <c r="B602">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -5210,7 +5210,7 @@
         <v>42557</v>
       </c>
       <c r="B603">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -5218,7 +5218,7 @@
         <v>42558</v>
       </c>
       <c r="B604">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -5226,7 +5226,7 @@
         <v>42559</v>
       </c>
       <c r="B605">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -5234,7 +5234,7 @@
         <v>42562</v>
       </c>
       <c r="B606">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -5242,7 +5242,7 @@
         <v>42563</v>
       </c>
       <c r="B607">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -5250,7 +5250,7 @@
         <v>42564</v>
       </c>
       <c r="B608">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -5258,7 +5258,7 @@
         <v>42565</v>
       </c>
       <c r="B609">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -5266,7 +5266,7 @@
         <v>42566</v>
       </c>
       <c r="B610">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -5274,7 +5274,7 @@
         <v>42569</v>
       </c>
       <c r="B611">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -5282,7 +5282,7 @@
         <v>42570</v>
       </c>
       <c r="B612">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -5290,7 +5290,7 @@
         <v>42571</v>
       </c>
       <c r="B613">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -5298,7 +5298,7 @@
         <v>42572</v>
       </c>
       <c r="B614">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -5306,7 +5306,7 @@
         <v>42573</v>
       </c>
       <c r="B615">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -5314,7 +5314,7 @@
         <v>42576</v>
       </c>
       <c r="B616">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -5322,7 +5322,7 @@
         <v>42577</v>
       </c>
       <c r="B617">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -5330,7 +5330,7 @@
         <v>42578</v>
       </c>
       <c r="B618">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -5338,7 +5338,7 @@
         <v>42579</v>
       </c>
       <c r="B619">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -5346,7 +5346,7 @@
         <v>42580</v>
       </c>
       <c r="B620">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -5354,7 +5354,7 @@
         <v>42583</v>
       </c>
       <c r="B621">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -5362,7 +5362,7 @@
         <v>42584</v>
       </c>
       <c r="B622">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -5370,7 +5370,7 @@
         <v>42585</v>
       </c>
       <c r="B623">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -5378,7 +5378,7 @@
         <v>42586</v>
       </c>
       <c r="B624">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -5386,7 +5386,7 @@
         <v>42587</v>
       </c>
       <c r="B625">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -5394,7 +5394,7 @@
         <v>42590</v>
       </c>
       <c r="B626">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -5402,7 +5402,7 @@
         <v>42591</v>
       </c>
       <c r="B627">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -5410,7 +5410,7 @@
         <v>42592</v>
       </c>
       <c r="B628">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -5418,7 +5418,7 @@
         <v>42593</v>
       </c>
       <c r="B629">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -5426,7 +5426,7 @@
         <v>42594</v>
       </c>
       <c r="B630">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -5434,7 +5434,7 @@
         <v>42597</v>
       </c>
       <c r="B631">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -5442,7 +5442,7 @@
         <v>42598</v>
       </c>
       <c r="B632">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -5450,7 +5450,7 @@
         <v>42599</v>
       </c>
       <c r="B633">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -5458,7 +5458,7 @@
         <v>42600</v>
       </c>
       <c r="B634">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -5466,7 +5466,7 @@
         <v>42601</v>
       </c>
       <c r="B635">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -5474,7 +5474,7 @@
         <v>42604</v>
       </c>
       <c r="B636">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -5482,7 +5482,7 @@
         <v>42605</v>
       </c>
       <c r="B637">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -5490,7 +5490,7 @@
         <v>42606</v>
       </c>
       <c r="B638">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -5498,7 +5498,7 @@
         <v>42607</v>
       </c>
       <c r="B639">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -5506,7 +5506,7 @@
         <v>42608</v>
       </c>
       <c r="B640">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -5514,7 +5514,7 @@
         <v>42611</v>
       </c>
       <c r="B641">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -5530,7 +5530,7 @@
         <v>42613</v>
       </c>
       <c r="B643">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -5538,7 +5538,7 @@
         <v>42614</v>
       </c>
       <c r="B644">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -5546,7 +5546,7 @@
         <v>42615</v>
       </c>
       <c r="B645">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -5554,7 +5554,7 @@
         <v>42618</v>
       </c>
       <c r="B646">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -5562,7 +5562,7 @@
         <v>42619</v>
       </c>
       <c r="B647">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -5570,7 +5570,7 @@
         <v>42620</v>
       </c>
       <c r="B648">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -5578,7 +5578,7 @@
         <v>42621</v>
       </c>
       <c r="B649">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -5586,7 +5586,7 @@
         <v>42622</v>
       </c>
       <c r="B650">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -5594,7 +5594,7 @@
         <v>42625</v>
       </c>
       <c r="B651">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -5602,7 +5602,7 @@
         <v>42626</v>
       </c>
       <c r="B652">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -5610,7 +5610,7 @@
         <v>42627</v>
       </c>
       <c r="B653">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -5618,7 +5618,7 @@
         <v>42632</v>
       </c>
       <c r="B654">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -5626,7 +5626,7 @@
         <v>42633</v>
       </c>
       <c r="B655">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -5634,7 +5634,7 @@
         <v>42634</v>
       </c>
       <c r="B656">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -5642,7 +5642,7 @@
         <v>42635</v>
       </c>
       <c r="B657">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -5650,7 +5650,7 @@
         <v>42636</v>
       </c>
       <c r="B658">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -5658,7 +5658,7 @@
         <v>42639</v>
       </c>
       <c r="B659">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -5666,7 +5666,7 @@
         <v>42640</v>
       </c>
       <c r="B660">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -5674,7 +5674,7 @@
         <v>42641</v>
       </c>
       <c r="B661">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -5682,7 +5682,7 @@
         <v>42642</v>
       </c>
       <c r="B662">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -5690,7 +5690,7 @@
         <v>42643</v>
       </c>
       <c r="B663">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -5698,7 +5698,7 @@
         <v>42653</v>
       </c>
       <c r="B664">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -5706,7 +5706,7 @@
         <v>42654</v>
       </c>
       <c r="B665">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -5714,7 +5714,7 @@
         <v>42655</v>
       </c>
       <c r="B666">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -5738,7 +5738,7 @@
         <v>42660</v>
       </c>
       <c r="B669">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -5746,7 +5746,7 @@
         <v>42661</v>
       </c>
       <c r="B670">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -5754,7 +5754,7 @@
         <v>42662</v>
       </c>
       <c r="B671">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -5762,7 +5762,7 @@
         <v>42663</v>
       </c>
       <c r="B672">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -5770,7 +5770,7 @@
         <v>42664</v>
       </c>
       <c r="B673">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -5778,7 +5778,7 @@
         <v>42667</v>
       </c>
       <c r="B674">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -5786,7 +5786,7 @@
         <v>42668</v>
       </c>
       <c r="B675">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -5794,7 +5794,7 @@
         <v>42669</v>
       </c>
       <c r="B676">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -5802,7 +5802,7 @@
         <v>42670</v>
       </c>
       <c r="B677">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -5810,7 +5810,7 @@
         <v>42671</v>
       </c>
       <c r="B678">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -5818,7 +5818,7 @@
         <v>42674</v>
       </c>
       <c r="B679">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -5826,7 +5826,7 @@
         <v>42675</v>
       </c>
       <c r="B680">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -5834,7 +5834,7 @@
         <v>42676</v>
       </c>
       <c r="B681">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -5842,7 +5842,7 @@
         <v>42677</v>
       </c>
       <c r="B682">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -5850,7 +5850,7 @@
         <v>42678</v>
       </c>
       <c r="B683">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -5858,7 +5858,7 @@
         <v>42681</v>
       </c>
       <c r="B684">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -5866,7 +5866,7 @@
         <v>42682</v>
       </c>
       <c r="B685">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -5874,7 +5874,7 @@
         <v>42683</v>
       </c>
       <c r="B686">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -5882,7 +5882,7 @@
         <v>42684</v>
       </c>
       <c r="B687">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -5890,7 +5890,7 @@
         <v>42685</v>
       </c>
       <c r="B688">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -5898,7 +5898,7 @@
         <v>42688</v>
       </c>
       <c r="B689">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -5906,7 +5906,7 @@
         <v>42689</v>
       </c>
       <c r="B690">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -5914,7 +5914,7 @@
         <v>42690</v>
       </c>
       <c r="B691">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -5922,7 +5922,7 @@
         <v>42691</v>
       </c>
       <c r="B692">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -5930,7 +5930,7 @@
         <v>42692</v>
       </c>
       <c r="B693">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -5938,7 +5938,7 @@
         <v>42695</v>
       </c>
       <c r="B694">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -5946,7 +5946,7 @@
         <v>42696</v>
       </c>
       <c r="B695">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -5954,7 +5954,7 @@
         <v>42697</v>
       </c>
       <c r="B696">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -5962,7 +5962,7 @@
         <v>42698</v>
       </c>
       <c r="B697">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -5970,7 +5970,7 @@
         <v>42699</v>
       </c>
       <c r="B698">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -5978,7 +5978,7 @@
         <v>42702</v>
       </c>
       <c r="B699">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -5986,7 +5986,7 @@
         <v>42703</v>
       </c>
       <c r="B700">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -5994,7 +5994,7 @@
         <v>42704</v>
       </c>
       <c r="B701">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -6002,7 +6002,7 @@
         <v>42705</v>
       </c>
       <c r="B702">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -6010,7 +6010,7 @@
         <v>42706</v>
       </c>
       <c r="B703">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -6018,7 +6018,7 @@
         <v>42709</v>
       </c>
       <c r="B704">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -6026,7 +6026,7 @@
         <v>42710</v>
       </c>
       <c r="B705">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -6034,7 +6034,7 @@
         <v>42711</v>
       </c>
       <c r="B706">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -6042,7 +6042,7 @@
         <v>42712</v>
       </c>
       <c r="B707">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -6050,7 +6050,7 @@
         <v>42713</v>
       </c>
       <c r="B708">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -6058,7 +6058,7 @@
         <v>42716</v>
       </c>
       <c r="B709">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -6066,7 +6066,7 @@
         <v>42717</v>
       </c>
       <c r="B710">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -6074,7 +6074,7 @@
         <v>42718</v>
       </c>
       <c r="B711">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -6082,7 +6082,7 @@
         <v>42719</v>
       </c>
       <c r="B712">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -6090,7 +6090,7 @@
         <v>42720</v>
       </c>
       <c r="B713">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -6098,7 +6098,7 @@
         <v>42723</v>
       </c>
       <c r="B714">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -6106,7 +6106,7 @@
         <v>42724</v>
       </c>
       <c r="B715">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -6114,7 +6114,7 @@
         <v>42725</v>
       </c>
       <c r="B716">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -6130,7 +6130,7 @@
         <v>42727</v>
       </c>
       <c r="B718">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -6138,7 +6138,7 @@
         <v>42730</v>
       </c>
       <c r="B719">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -6146,7 +6146,7 @@
         <v>42731</v>
       </c>
       <c r="B720">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -6154,7 +6154,7 @@
         <v>42732</v>
       </c>
       <c r="B721">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:2">
@@ -6162,7 +6162,7 @@
         <v>42733</v>
       </c>
       <c r="B722">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -6170,7 +6170,7 @@
         <v>42734</v>
       </c>
       <c r="B723">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -6178,7 +6178,7 @@
         <v>42738</v>
       </c>
       <c r="B724">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -6186,7 +6186,7 @@
         <v>42739</v>
       </c>
       <c r="B725">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:2">
@@ -6194,7 +6194,7 @@
         <v>42740</v>
       </c>
       <c r="B726">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -6202,7 +6202,7 @@
         <v>42741</v>
       </c>
       <c r="B727">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -6210,7 +6210,7 @@
         <v>42744</v>
       </c>
       <c r="B728">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -6218,7 +6218,7 @@
         <v>42745</v>
       </c>
       <c r="B729">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -6226,7 +6226,7 @@
         <v>42746</v>
       </c>
       <c r="B730">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -6234,7 +6234,7 @@
         <v>42747</v>
       </c>
       <c r="B731">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -6242,7 +6242,7 @@
         <v>42748</v>
       </c>
       <c r="B732">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -6250,7 +6250,7 @@
         <v>42751</v>
       </c>
       <c r="B733">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -6258,7 +6258,7 @@
         <v>42752</v>
       </c>
       <c r="B734">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -6266,7 +6266,7 @@
         <v>42753</v>
       </c>
       <c r="B735">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -6274,7 +6274,7 @@
         <v>42754</v>
       </c>
       <c r="B736">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -6282,7 +6282,7 @@
         <v>42755</v>
       </c>
       <c r="B737">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -6290,7 +6290,7 @@
         <v>42758</v>
       </c>
       <c r="B738">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -6298,7 +6298,7 @@
         <v>42759</v>
       </c>
       <c r="B739">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -6306,7 +6306,7 @@
         <v>42760</v>
       </c>
       <c r="B740">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -6314,7 +6314,7 @@
         <v>42761</v>
       </c>
       <c r="B741">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -6322,7 +6322,7 @@
         <v>42769</v>
       </c>
       <c r="B742">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -6330,7 +6330,7 @@
         <v>42772</v>
       </c>
       <c r="B743">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -6338,7 +6338,7 @@
         <v>42773</v>
       </c>
       <c r="B744">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:2">
@@ -6354,7 +6354,7 @@
         <v>42775</v>
       </c>
       <c r="B746">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -6362,7 +6362,7 @@
         <v>42776</v>
       </c>
       <c r="B747">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -6370,7 +6370,7 @@
         <v>42779</v>
       </c>
       <c r="B748">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -6378,7 +6378,7 @@
         <v>42780</v>
       </c>
       <c r="B749">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -6386,7 +6386,7 @@
         <v>42781</v>
       </c>
       <c r="B750">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -6394,7 +6394,7 @@
         <v>42782</v>
       </c>
       <c r="B751">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -6402,7 +6402,7 @@
         <v>42783</v>
       </c>
       <c r="B752">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:2">
@@ -6410,7 +6410,7 @@
         <v>42786</v>
       </c>
       <c r="B753">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -6418,7 +6418,7 @@
         <v>42787</v>
       </c>
       <c r="B754">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:2">
@@ -6426,7 +6426,7 @@
         <v>42788</v>
       </c>
       <c r="B755">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:2">
@@ -6434,7 +6434,7 @@
         <v>42789</v>
       </c>
       <c r="B756">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:2">
@@ -6442,7 +6442,7 @@
         <v>42790</v>
       </c>
       <c r="B757">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:2">
@@ -6450,7 +6450,7 @@
         <v>42793</v>
       </c>
       <c r="B758">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:2">
@@ -6458,7 +6458,7 @@
         <v>42794</v>
       </c>
       <c r="B759">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:2">
@@ -6466,7 +6466,7 @@
         <v>42795</v>
       </c>
       <c r="B760">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:2">
@@ -6474,7 +6474,7 @@
         <v>42796</v>
       </c>
       <c r="B761">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:2">
@@ -6482,7 +6482,7 @@
         <v>42797</v>
       </c>
       <c r="B762">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:2">
@@ -6490,7 +6490,7 @@
         <v>42800</v>
       </c>
       <c r="B763">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:2">
@@ -6498,7 +6498,7 @@
         <v>42801</v>
       </c>
       <c r="B764">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:2">
@@ -6506,7 +6506,7 @@
         <v>42802</v>
       </c>
       <c r="B765">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:2">
@@ -6514,7 +6514,7 @@
         <v>42803</v>
       </c>
       <c r="B766">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:2">
@@ -6538,7 +6538,7 @@
         <v>42808</v>
       </c>
       <c r="B769">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:2">
@@ -6546,7 +6546,7 @@
         <v>42809</v>
       </c>
       <c r="B770">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -6554,7 +6554,7 @@
         <v>42810</v>
       </c>
       <c r="B771">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:2">
@@ -6562,7 +6562,7 @@
         <v>42811</v>
       </c>
       <c r="B772">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:2">
@@ -6570,7 +6570,7 @@
         <v>42814</v>
       </c>
       <c r="B773">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:2">
@@ -6578,7 +6578,7 @@
         <v>42815</v>
       </c>
       <c r="B774">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:2">
@@ -6586,7 +6586,7 @@
         <v>42816</v>
       </c>
       <c r="B775">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:2">
@@ -6602,7 +6602,7 @@
         <v>42818</v>
       </c>
       <c r="B777">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:2">
@@ -6610,7 +6610,7 @@
         <v>42821</v>
       </c>
       <c r="B778">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:2">
@@ -6618,7 +6618,7 @@
         <v>42822</v>
       </c>
       <c r="B779">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -6626,7 +6626,7 @@
         <v>42823</v>
       </c>
       <c r="B780">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:2">
@@ -6634,7 +6634,7 @@
         <v>42824</v>
       </c>
       <c r="B781">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:2">
@@ -6642,7 +6642,7 @@
         <v>42825</v>
       </c>
       <c r="B782">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:2">
@@ -6650,7 +6650,7 @@
         <v>42830</v>
       </c>
       <c r="B783">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:2">
@@ -6658,7 +6658,7 @@
         <v>42831</v>
       </c>
       <c r="B784">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -6666,7 +6666,7 @@
         <v>42832</v>
       </c>
       <c r="B785">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:2">
@@ -6674,7 +6674,7 @@
         <v>42835</v>
       </c>
       <c r="B786">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:2">
@@ -6682,7 +6682,7 @@
         <v>42836</v>
       </c>
       <c r="B787">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:2">
@@ -6690,7 +6690,7 @@
         <v>42837</v>
       </c>
       <c r="B788">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:2">
@@ -6698,7 +6698,7 @@
         <v>42838</v>
       </c>
       <c r="B789">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:2">
@@ -6706,7 +6706,7 @@
         <v>42839</v>
       </c>
       <c r="B790">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:2">
@@ -6714,7 +6714,7 @@
         <v>42842</v>
       </c>
       <c r="B791">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:2">
@@ -6722,7 +6722,7 @@
         <v>42843</v>
       </c>
       <c r="B792">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:2">
@@ -6730,7 +6730,7 @@
         <v>42844</v>
       </c>
       <c r="B793">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:2">
@@ -6738,7 +6738,7 @@
         <v>42845</v>
       </c>
       <c r="B794">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:2">
@@ -6746,7 +6746,7 @@
         <v>42846</v>
       </c>
       <c r="B795">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:2">
@@ -6754,7 +6754,7 @@
         <v>42849</v>
       </c>
       <c r="B796">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:2">
@@ -6762,7 +6762,7 @@
         <v>42850</v>
       </c>
       <c r="B797">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:2">
@@ -6770,7 +6770,7 @@
         <v>42851</v>
       </c>
       <c r="B798">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:2">
@@ -6778,7 +6778,7 @@
         <v>42852</v>
       </c>
       <c r="B799">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:2">
@@ -6786,7 +6786,7 @@
         <v>42853</v>
       </c>
       <c r="B800">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:2">
@@ -6802,7 +6802,7 @@
         <v>42858</v>
       </c>
       <c r="B802">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:2">
@@ -6810,7 +6810,7 @@
         <v>42859</v>
       </c>
       <c r="B803">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:2">
@@ -6818,7 +6818,7 @@
         <v>42860</v>
       </c>
       <c r="B804">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -6842,7 +6842,7 @@
         <v>42865</v>
       </c>
       <c r="B807">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:2">
@@ -6850,7 +6850,7 @@
         <v>42866</v>
       </c>
       <c r="B808">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:2">
@@ -6858,7 +6858,7 @@
         <v>42867</v>
       </c>
       <c r="B809">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:2">
@@ -6866,7 +6866,7 @@
         <v>42870</v>
       </c>
       <c r="B810">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:2">
@@ -6874,7 +6874,7 @@
         <v>42871</v>
       </c>
       <c r="B811">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:2">
